--- a/pingerParts_arcwatchDeployment.xlsx
+++ b/pingerParts_arcwatchDeployment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/f001ymh/Desktop/PhD/Research/Instrumentation/Development/Temperature Dataloggers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116EC9C2-69C1-5841-854B-66BD99268454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070D3294-AB67-F747-8CE2-BD3D8D9B9CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{6C689161-FBD7-524F-B987-6C4965D8E564}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>part</t>
   </si>
@@ -108,9 +108,6 @@
     <t>3x1 screw terminal</t>
   </si>
   <si>
-    <t>Antenna</t>
-  </si>
-  <si>
     <t>Project box</t>
   </si>
   <si>
@@ -127,6 +124,21 @@
   </si>
   <si>
     <t>Memory card</t>
+  </si>
+  <si>
+    <t>CRREL?</t>
+  </si>
+  <si>
+    <t>Maybe some at CRREL, some up at Fairbanks (7541…? Chris will check model number. Std. horn)</t>
+  </si>
+  <si>
+    <t>Have Mike's sensors for deployment, use the money to test a bunch of new sensors on the market</t>
+  </si>
+  <si>
+    <t>ni chem batteries that work well in the cold?</t>
+  </si>
+  <si>
+    <t>Antennas</t>
   </si>
 </sst>
 </file>
@@ -508,7 +520,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,31 +596,31 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <f>$L$2*B3</f>
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E21" si="0">C3-D3</f>
         <v>6</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>7.5</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f t="shared" ref="G3:G19" si="1">E3*F3</f>
         <v>45</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -639,255 +651,306 @@
         <v>0</v>
       </c>
       <c r="H4" s="4"/>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
         <f>$L$2*B5</f>
         <v>10</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f>$L$2*B6</f>
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <f>$L$2*B7</f>
         <v>10</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
         <f>$L$2*B8</f>
         <v>10</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <f>$L$2*B9</f>
         <v>10</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <f>$L$2*B10</f>
         <v>10</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <f>$L$2*B11</f>
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <f>$L$2*B11</f>
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <f>$L$2*B12</f>
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>79.599999999999994</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f>$L$2*B12</f>
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>79.599999999999994</v>
-      </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:C19" si="2">$L$2*B13</f>
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13">
-        <f t="shared" ref="C13:C19" si="2">$L$2*B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17">
